--- a/statistiche/RandomForestCounterfactuals/AAA.xlsx
+++ b/statistiche/RandomForestCounterfactuals/AAA.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="3" t="inlineStr">
         <is>
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3" t="inlineStr">
         <is>
@@ -755,37 +755,37 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="3" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="3" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>1</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3" t="inlineStr">
         <is>
@@ -1023,25 +1023,25 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1059,13 +1059,13 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>1</v>
@@ -1129,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3" t="inlineStr">
         <is>
@@ -1157,22 +1157,22 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="3" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>1</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="3" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>1</v>
@@ -1388,22 +1388,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3" t="inlineStr">
         <is>
@@ -1425,25 +1425,25 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1452,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1522,22 +1522,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="3" t="inlineStr">
         <is>
@@ -1559,10 +1559,10 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1595,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="3" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
@@ -1656,22 +1656,22 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3" t="inlineStr">
         <is>
@@ -1693,10 +1693,10 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="3" t="inlineStr">
         <is>
@@ -1763,13 +1763,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>1</v>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
@@ -1787,25 +1787,25 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="3" t="inlineStr">
         <is>
